--- a/public/Result of user study_Revelio.xlsx
+++ b/public/Result of user study_Revelio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxx72\Desktop\Projects\Gestalt\Gestalt_VIS_SVG\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xumen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4A7CD-1711-4D01-B5A3-B9EAEBB525D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189ACD28-58C1-4C6E-B5BD-66AD4AD92D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -60,30 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.Does exploring element groups help me optimize chart design?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Can  patterns list cards help me understand the perceptual results of graphical patterns?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.Revelio can help me assess  the perceptual results more comprehensively.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Revelio can help me understand the  perception theories.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.I believe that Revelio's Sailence is an appropriate rating.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.The All elements module in Visual Encodings Assessment can help me assess the current state of my chart and generate my ideas for improvement.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7. Revelio's suggestions make sense.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,7 +141,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -182,13 +157,164 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">he function of perception is very useful, which saves me the process of determining the graphic pattern.
+      <t xml:space="preserve"> It can provide reasonable optimization suggestions, clearly give the notable parts and meet the expectations.
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Improvements: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Give more optimization suggestions, collect users' suggestions for a long time when the system is released and add them to the system. It would be better to add a novice guide.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Exploring element groups help me optimize chart design.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Patterns cards help me understand the underlying perceptual results.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Revelio helps me assess  chart design more comprehensively.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Sailence provided by Revelio is a reasonable indicator.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Revelio helps me understand how a pattern is perceived.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.Feedback from Revelio help me devise chart optimization solutions.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Difficulties: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When constructing the graphical pattern one wants to highlight, it is difficult to select the small elements.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Useful functions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Automatically perceive the graphic pattern and enhance the desired pattern with one click.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Improvements: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide more optional suggestions.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Useful functions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The list of graphic patterns can greatly assist in selection and is easy to operate.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -202,23 +328,11 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>it can be considered to add a more refined batch selection function</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Optimization solutions could be provided from more perspectives.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -270,7 +384,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Improvements:</t>
+      <t xml:space="preserve">Improvements: </t>
     </r>
     <r>
       <rPr>
@@ -290,12 +404,24 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Useful functions:</t>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Useful functions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -306,13 +432,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> It can provide reasonable optimization suggestions, clearly give the notable parts and meet the expectations.
+      <t xml:space="preserve">he function of perception is very useful, which saves me the process of determining the graphic pattern.
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -325,16 +452,208 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It can be considered to add a more refined batch selection function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Difficulties: T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Give more optimization suggestions, collect users' suggestions for a long time when the system is released and add them to the system. It would be better to add a novice guide.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve">he distinction between hue and brightness is not very clear.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Useful functions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Clicking on the suggestion can be directly applied and the code is automatically modified. The elements in the image are directly located and selected in the code, which greatly reduces the search time. There are two different selection modes, clicking and sliding, which are suitable for different scenarios.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Improvement:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The panel of suggestions can be a bit larger.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Difficulties: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For beginners to use, a detailed tutorial is required.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Useful functions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The perception of graphical elements can avoid the influence of subjective factors on the chart, and at the same time can assist in improving the chart.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Improvements: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The system can provide users with greater freedom, and the filtering method still needs to be further improved.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Difficulties:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The font is too small and cannot be seen without careful observation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -355,314 +674,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The list of graphic patterns can greatly assist in selection and is easy to operate.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Improvements:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> It is suggested that for the part that can be optimized, attempts can be made to add modifications in more dimensions.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Difficulties:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">For beginners to use, a detailed tutorial is required.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Useful functions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The perception of graphics can avoid the influence of subjective factors on the chart, and at the same time can assist in improving the chart.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Improvements:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The system can provide users with greater freedom, and the filtering method still needs to be further improved.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Difficulties:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Some English words are not recognized, and the distinction between hue and brightness is not very clear.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Useful functions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Clicking on the suggestion can be directly applied and the code is automatically modified. The elements in the image are directly located and selected in the code, which greatly reduces the search time.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Improvements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:There are two different selection modes, clicking and sliding, which are suitable for different scenarios. Improvement: The panel of suggestions can be a bit larger.
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Difficulties:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When constructing the graphic pattern one wants to highlight, it is difficult to select the small graphics.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Useful functions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Automatically perceive the graphic pattern and enhance the desired pattern with one click.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Improvements:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Provide more optional suggestions.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Difficulties:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The font is too small and cannot be seen without careful observation.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Useful functions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -691,7 +702,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:It is hoped that the font is moderate, the system fluency is increased, and it would be better if the chart can have a gradient.
+      <t xml:space="preserve">: It is hoped that the font is moderate, the system fluency is increased, and it would be better if the chart can have a gradient.
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -731,7 +742,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Useful functions:</t>
+      <t xml:space="preserve">Useful functions: </t>
     </r>
     <r>
       <rPr>
@@ -755,7 +766,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Improvements:</t>
+      <t xml:space="preserve">Improvements: </t>
     </r>
     <r>
       <rPr>
@@ -805,7 +816,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Useful functions:</t>
+      <t xml:space="preserve">Useful functions: </t>
     </r>
     <r>
       <rPr>
@@ -829,7 +840,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Improvements:</t>
+      <t xml:space="preserve">Improvements: </t>
     </r>
     <r>
       <rPr>
@@ -855,7 +866,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Difficulties:</t>
+      <t xml:space="preserve">Difficulties: </t>
     </r>
     <r>
       <rPr>
@@ -903,7 +914,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Improvements:</t>
+      <t xml:space="preserve">Improvements: </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +951,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:Its interaction method and presentation form are very perfect, but the graphic modes that can be modified or parsed are very rich, which is a bit dazzling.
+      <t xml:space="preserve">: Its interaction method and presentation form are very perfect, but the graphic modes that can be modified or parsed are very rich, which is a bit dazzling.
 </t>
     </r>
     <r>
@@ -953,7 +964,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Useful functions:</t>
+      <t xml:space="preserve">Useful functions: </t>
     </r>
     <r>
       <rPr>
@@ -1014,7 +1025,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:The interface feels like it has many page elements, making the visual experience somewhat scattered. Initially, it requires some time to learn and operate, and it takes effort to grasp the entire system as a whole.
+      <t xml:space="preserve">: The interface feels like it has many page elements, making the visual experience somewhat scattered. Initially, it requires some time to learn and operate, and it takes effort to grasp the entire system as a whole.
 </t>
     </r>
     <r>
@@ -1038,7 +1049,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:It can help me generate charts that meet my specific highlighting needs and provide some template suggestions
+      <t xml:space="preserve">: It can help me generate charts that meet my specific highlighting needs and provide some template suggestions
 </t>
     </r>
     <r>
@@ -1062,7 +1073,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:I think the page design for each functional area could be differentiated. For example, the three functional areas on the right could be distinguished by size or other methods to highlight the first part (the selected results) and the buttons in the lower-right section, making the click command operations more obvious and convenient. Meanwhile, some specific numerical indices could be appropriately hidden and only expanded when users need them by clicking.</t>
+      <t>: I think the page design for each functional area could be differentiated. For example, the three functional areas on the right could be distinguished by size or other methods to highlight the first part (the selected results) and the buttons in the lower-right section, making the click command operations more obvious and convenient. Meanwhile, some specific numerical indices could be appropriately hidden and only expanded when users need them by clicking.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1088,7 +1099,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:How to effectively understand several different recognized patterns given by the system, although these patterns can have a large overlap with the human subjective.
+      <t xml:space="preserve">: How to effectively understand several different recognized patterns given by the system, although these patterns can have a large overlap with the human subjective.
 </t>
     </r>
     <r>
@@ -1112,7 +1123,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:It can quickly help users filter out some patterns with high significance, and each pattern is well divided.
+      <t xml:space="preserve">: It can quickly help users filter out some patterns with high significance, and each pattern is well divided.
 </t>
     </r>
     <r>
@@ -1125,7 +1136,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Improvements:</t>
+      <t xml:space="preserve">Improvements: </t>
     </r>
     <r>
       <rPr>
@@ -1379,7 +1390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1406,9 +1417,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1418,22 +1475,22 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1446,60 +1503,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1820,37 +1830,37 @@
   </sheetPr>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="K20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="28" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" style="16" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="38.7109375" customWidth="1"/>
-    <col min="15" max="15" width="37.28515625" customWidth="1"/>
-    <col min="16" max="16" width="33.42578125" customWidth="1"/>
-    <col min="17" max="17" width="34.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.109375" customWidth="1"/>
+    <col min="14" max="14" width="38.6640625" customWidth="1"/>
+    <col min="15" max="15" width="37.33203125" customWidth="1"/>
+    <col min="16" max="16" width="33.44140625" customWidth="1"/>
+    <col min="17" max="17" width="34.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="6">
         <v>1</v>
       </c>
@@ -1896,16 +1906,16 @@
       <c r="Q1" s="6">
         <v>15</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>7</v>
+      <c r="B2" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -1952,290 +1962,290 @@
       <c r="Q2" s="4">
         <v>5</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="18">
         <f>AVERAGE(C2:Q2)</f>
         <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12">
-        <v>4</v>
-      </c>
-      <c r="E3" s="12">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12">
-        <v>5</v>
-      </c>
-      <c r="H3" s="12">
-        <v>5</v>
-      </c>
-      <c r="I3" s="12">
-        <v>4</v>
-      </c>
-      <c r="J3" s="12">
-        <v>4</v>
-      </c>
-      <c r="K3" s="12">
-        <v>5</v>
-      </c>
-      <c r="L3" s="12">
-        <v>4</v>
-      </c>
-      <c r="M3" s="12">
-        <v>5</v>
-      </c>
-      <c r="N3" s="12">
-        <v>5</v>
-      </c>
-      <c r="O3" s="12">
-        <v>4</v>
-      </c>
-      <c r="P3" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>5</v>
-      </c>
-      <c r="R3" s="31">
+    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4</v>
+      </c>
+      <c r="P3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>5</v>
+      </c>
+      <c r="R3" s="19">
         <f>AVERAGE(C3:Q3)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12">
-        <v>5</v>
-      </c>
-      <c r="H4" s="12">
-        <v>5</v>
-      </c>
-      <c r="I4" s="12">
-        <v>5</v>
-      </c>
-      <c r="J4" s="12">
-        <v>4</v>
-      </c>
-      <c r="K4" s="12">
-        <v>5</v>
-      </c>
-      <c r="L4" s="12">
-        <v>4</v>
-      </c>
-      <c r="M4" s="12">
-        <v>5</v>
-      </c>
-      <c r="N4" s="12">
-        <v>5</v>
-      </c>
-      <c r="O4" s="12">
-        <v>4</v>
-      </c>
-      <c r="P4" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>5</v>
-      </c>
-      <c r="R4" s="31">
+    <row r="4" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="19">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
+    <row r="5" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="12">
-        <v>5</v>
-      </c>
-      <c r="H5" s="12">
-        <v>5</v>
-      </c>
-      <c r="I5" s="12">
-        <v>4</v>
-      </c>
-      <c r="J5" s="12">
-        <v>4</v>
-      </c>
-      <c r="K5" s="12">
-        <v>4</v>
-      </c>
-      <c r="L5" s="12">
-        <v>5</v>
-      </c>
-      <c r="M5" s="12">
-        <v>4</v>
-      </c>
-      <c r="N5" s="12">
-        <v>5</v>
-      </c>
-      <c r="O5" s="12">
-        <v>5</v>
-      </c>
-      <c r="P5" s="12">
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3">
         <v>3</v>
       </c>
-      <c r="Q5" s="12">
-        <v>5</v>
-      </c>
-      <c r="R5" s="31">
+      <c r="Q5" s="3">
+        <v>5</v>
+      </c>
+      <c r="R5" s="19">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12">
-        <v>5</v>
-      </c>
-      <c r="F6" s="12">
-        <v>5</v>
-      </c>
-      <c r="G6" s="12">
-        <v>5</v>
-      </c>
-      <c r="H6" s="12">
-        <v>4</v>
-      </c>
-      <c r="I6" s="12">
-        <v>5</v>
-      </c>
-      <c r="J6" s="12">
-        <v>4</v>
-      </c>
-      <c r="K6" s="12">
-        <v>4</v>
-      </c>
-      <c r="L6" s="12">
-        <v>4</v>
-      </c>
-      <c r="M6" s="12">
-        <v>5</v>
-      </c>
-      <c r="N6" s="12">
-        <v>5</v>
-      </c>
-      <c r="O6" s="12">
-        <v>4</v>
-      </c>
-      <c r="P6" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>5</v>
-      </c>
-      <c r="R6" s="31">
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="19">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12">
-        <v>4</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12">
-        <v>5</v>
-      </c>
-      <c r="G7" s="12">
-        <v>5</v>
-      </c>
-      <c r="H7" s="12">
-        <v>4</v>
-      </c>
-      <c r="I7" s="12">
-        <v>4</v>
-      </c>
-      <c r="J7" s="12">
-        <v>5</v>
-      </c>
-      <c r="K7" s="12">
-        <v>5</v>
-      </c>
-      <c r="L7" s="12">
-        <v>4</v>
-      </c>
-      <c r="M7" s="12">
-        <v>4</v>
-      </c>
-      <c r="N7" s="12">
-        <v>5</v>
-      </c>
-      <c r="O7" s="12">
-        <v>5</v>
-      </c>
-      <c r="P7" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>5</v>
-      </c>
-      <c r="R7" s="31">
+    <row r="7" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="19">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19" t="s">
-        <v>13</v>
+    <row r="8" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -2282,17 +2292,17 @@
       <c r="Q8" s="3">
         <v>4</v>
       </c>
-      <c r="R8" s="31">
-        <f>AVERAGE(C8:Q8)</f>
+      <c r="R8" s="19">
+        <f t="shared" ref="R8:R19" si="1">AVERAGE(C8:Q8)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>15</v>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -2339,15 +2349,15 @@
       <c r="Q9" s="4">
         <v>4</v>
       </c>
-      <c r="R9" s="30">
-        <f>AVERAGE(C9:Q9)</f>
+      <c r="R9" s="18">
+        <f t="shared" si="1"/>
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19" t="s">
-        <v>16</v>
+    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -2394,15 +2404,15 @@
       <c r="Q10" s="3">
         <v>2</v>
       </c>
-      <c r="R10" s="31">
-        <f>AVERAGE(C10:Q10)</f>
+      <c r="R10" s="19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19" t="s">
-        <v>17</v>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -2449,15 +2459,15 @@
       <c r="Q11" s="3">
         <v>5</v>
       </c>
-      <c r="R11" s="31">
-        <f>AVERAGE(C11:Q11)</f>
+      <c r="R11" s="19">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19" t="s">
-        <v>18</v>
+    <row r="12" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -2501,18 +2511,18 @@
       <c r="P12" s="3">
         <v>4</v>
       </c>
-      <c r="Q12" s="12">
-        <v>2</v>
-      </c>
-      <c r="R12" s="31">
-        <f>AVERAGE(C12:Q12)</f>
+      <c r="Q12" s="3">
+        <v>2</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="1"/>
         <v>1.9333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="19" t="s">
-        <v>19</v>
+    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
@@ -2556,18 +2566,18 @@
       <c r="P13" s="3">
         <v>4</v>
       </c>
-      <c r="Q13" s="12">
-        <v>5</v>
-      </c>
-      <c r="R13" s="31">
-        <f>AVERAGE(C13:Q13)</f>
+      <c r="Q13" s="3">
+        <v>5</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="1"/>
         <v>4.4666666666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="19" t="s">
-        <v>24</v>
+    <row r="14" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2611,18 +2621,18 @@
       <c r="P14" s="3">
         <v>2</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="3">
         <v>1</v>
       </c>
-      <c r="R14" s="31">
-        <f>AVERAGE(C14:Q14)</f>
+      <c r="R14" s="19">
+        <f t="shared" si="1"/>
         <v>1.8666666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="19" t="s">
-        <v>20</v>
+    <row r="15" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -2666,18 +2676,18 @@
       <c r="P15" s="3">
         <v>3</v>
       </c>
-      <c r="Q15" s="12">
-        <v>5</v>
-      </c>
-      <c r="R15" s="31">
-        <f>AVERAGE(C15:Q15)</f>
+      <c r="Q15" s="3">
+        <v>5</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="19" t="s">
-        <v>21</v>
+    <row r="16" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2721,18 +2731,18 @@
       <c r="P16" s="3">
         <v>2</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="3">
         <v>1</v>
       </c>
-      <c r="R16" s="31">
-        <f>AVERAGE(C16:Q16)</f>
+      <c r="R16" s="19">
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="19" t="s">
-        <v>22</v>
+    <row r="17" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
@@ -2776,18 +2786,18 @@
       <c r="P17" s="3">
         <v>4</v>
       </c>
-      <c r="Q17" s="12">
-        <v>4</v>
-      </c>
-      <c r="R17" s="31">
-        <f>AVERAGE(C17:Q17)</f>
+      <c r="Q17" s="3">
+        <v>4</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
-        <v>23</v>
+    <row r="18" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
@@ -2834,16 +2844,16 @@
       <c r="Q18" s="7">
         <v>1</v>
       </c>
-      <c r="R18" s="32">
-        <f>AVERAGE(C18:Q18)</f>
+      <c r="R18" s="20">
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="8">
@@ -2891,14 +2901,14 @@
       <c r="Q19" s="3">
         <v>27</v>
       </c>
-      <c r="R19" s="31">
-        <f>AVERAGE(C19:Q19)</f>
+      <c r="R19" s="19">
+        <f t="shared" si="1"/>
         <v>23.066666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="9">
@@ -2946,86 +2956,86 @@
       <c r="Q20" s="11">
         <v>26</v>
       </c>
-      <c r="R20" s="33">
-        <f t="shared" ref="R20" si="1">AVERAGE(C20:Q20)</f>
+      <c r="R20" s="21">
+        <f t="shared" ref="R20" si="2">AVERAGE(C20:Q20)</f>
         <v>15.933333333333334</v>
       </c>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="345" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:19" ht="345" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="36" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="37" t="s">
+      <c r="G21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="37" t="s">
+      <c r="I21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="37" t="s">
+      <c r="P21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="38" t="s">
+      <c r="Q21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="34"/>
+      <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H29" s="1"/>
     </row>
   </sheetData>
